--- a/output-files/schedule.xlsx
+++ b/output-files/schedule.xlsx
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>44589.53472222222</v>
+        <v>44587.12013888889</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44589.84027777778</v>
+        <v>44587.42569444444</v>
       </c>
     </row>
     <row r="18">
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>44589.84722222222</v>
+        <v>44589.69652777778</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44590.16666666666</v>
+        <v>44590.01597222222</v>
       </c>
     </row>
     <row r="19">
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>44574.22008928571</v>
+        <v>44580.83581349206</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44574.50411706349</v>
+        <v>44581.11984126984</v>
       </c>
     </row>
     <row r="20">
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>44574.99439484126</v>
+        <v>44582.59136904762</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44575.27842261904</v>
+        <v>44582.8753968254</v>
       </c>
     </row>
     <row r="21">
@@ -964,7 +964,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>44574.51245039682</v>
+        <v>44582.19831349206</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44574.79856150793</v>
+        <v>44582.48234126984</v>
       </c>
     </row>
     <row r="22">
@@ -1004,10 +1004,10 @@
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>44589.84722222222</v>
+        <v>44589.70694444444</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44590.16666666666</v>
+        <v>44590.02638888889</v>
       </c>
     </row>
     <row r="23">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>44589.58611111111</v>
+        <v>44588.93819444445</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44589.87222222222</v>
+        <v>44589.22222222222</v>
       </c>
     </row>
     <row r="24">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>44587.52916666667</v>
+        <v>44580.44067460317</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44587.81319444445</v>
+        <v>44580.72678571428</v>
       </c>
     </row>
     <row r="25">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1082,10 +1082,10 @@
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>44589.88055555556</v>
+        <v>44589.33958333333</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44590.16666666666</v>
+        <v>44589.62361111111</v>
       </c>
     </row>
     <row r="26">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1108,10 +1108,10 @@
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>44585.10099206348</v>
+        <v>44589.74097222222</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44585.38710317459</v>
+        <v>44590.025</v>
       </c>
     </row>
     <row r="27">
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>44589.84722222222</v>
+        <v>44589.71319444444</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44590.16666666666</v>
+        <v>44590.03263888889</v>
       </c>
     </row>
     <row r="28">
@@ -1160,10 +1160,10 @@
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>44589.84722222222</v>
+        <v>44589.71319444444</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44590.16666666666</v>
+        <v>44590.03263888889</v>
       </c>
     </row>
     <row r="29">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>44589.84722222222</v>
+        <v>44589.71319444444</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44590.16666666666</v>
+        <v>44590.03263888889</v>
       </c>
     </row>
     <row r="30">
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>44589.86111111111</v>
+        <v>44588.84652777778</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44590.16666666666</v>
+        <v>44589.15208333333</v>
       </c>
     </row>
     <row r="31">
@@ -1238,10 +1238,10 @@
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>44589.08263888889</v>
+        <v>44589.71388888889</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44589.38819444444</v>
+        <v>44590.01944444444</v>
       </c>
     </row>
     <row r="32">
@@ -1264,10 +1264,10 @@
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>44588.5</v>
+        <v>44585.94097222222</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44588.81944444445</v>
+        <v>44586.26041666666</v>
       </c>
     </row>
     <row r="33">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>44588.05138888889</v>
+        <v>44587.74861111111</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44588.45833333334</v>
+        <v>44588.15555555555</v>
       </c>
     </row>
     <row r="34">
@@ -1316,10 +1316,10 @@
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>44573.18536706348</v>
+        <v>44575.33239087301</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44573.50481150793</v>
+        <v>44575.65183531745</v>
       </c>
     </row>
     <row r="35">
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>44573.95967261904</v>
+        <v>44580.15803571428</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44574.27911706348</v>
+        <v>44580.47748015873</v>
       </c>
     </row>
     <row r="36">
@@ -1368,10 +1368,10 @@
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>44572.41106150793</v>
+        <v>44581.03373015873</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44572.73050595237</v>
+        <v>44581.35317460317</v>
       </c>
     </row>
     <row r="37">
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>44588.09375</v>
+        <v>44587.80416666667</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44588.45833333334</v>
+        <v>44588.16875</v>
       </c>
     </row>
     <row r="38">
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>44585.39880952381</v>
+        <v>44581.88164682539</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44585.71825396825</v>
+        <v>44582.20109126984</v>
       </c>
     </row>
     <row r="39">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>44586.49444444444</v>
+        <v>44579.26081349206</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44586.81388888889</v>
+        <v>44579.5802579365</v>
       </c>
     </row>
     <row r="40">
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>44587.26944444444</v>
+        <v>44585.59027777778</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44587.58888888889</v>
+        <v>44585.90972222222</v>
       </c>
     </row>
     <row r="41">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>44584.07876984126</v>
+        <v>44586.81319444445</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44584.39821428571</v>
+        <v>44587.13263888889</v>
       </c>
     </row>
     <row r="42">
@@ -1524,10 +1524,10 @@
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>44587.44930555556</v>
+        <v>44587.16805555556</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44587.8625</v>
+        <v>44587.58125</v>
       </c>
     </row>
     <row r="43">
@@ -1550,10 +1550,10 @@
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>44588.73958333334</v>
+        <v>44588.55833333333</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44589.15277777778</v>
+        <v>44588.97152777778</v>
       </c>
     </row>
     <row r="44">
@@ -1576,10 +1576,10 @@
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>44586.06041666667</v>
+        <v>44585.67291666667</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44586.47361111111</v>
+        <v>44586.08611111111</v>
       </c>
     </row>
     <row r="45">
@@ -1602,10 +1602,10 @@
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>44588.82638888889</v>
+        <v>44587.67986111111</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44589.14583333334</v>
+        <v>44587.99930555555</v>
       </c>
     </row>
     <row r="46">
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>44588.04791666667</v>
+        <v>44588.54722222222</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44588.36736111111</v>
+        <v>44588.86666666667</v>
       </c>
     </row>
     <row r="47">
@@ -1654,10 +1654,10 @@
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>44582.88908730158</v>
+        <v>44584.06944444445</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44583.23630952381</v>
+        <v>44584.41666666666</v>
       </c>
     </row>
     <row r="48">
@@ -1680,10 +1680,10 @@
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>44586.06458333333</v>
+        <v>44585.61736111111</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44587.08611111111</v>
+        <v>44586.63888888889</v>
       </c>
     </row>
     <row r="49">
@@ -1706,10 +1706,10 @@
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>44571.5152281746</v>
+        <v>44573.50461309523</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44571.7964781746</v>
+        <v>44573.78586309523</v>
       </c>
     </row>
     <row r="50">
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>44572.28953373015</v>
+        <v>44578.3302579365</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44572.57078373015</v>
+        <v>44578.6115079365</v>
       </c>
     </row>
     <row r="51">
@@ -1758,10 +1758,10 @@
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>44570.74092261904</v>
+        <v>44579.20595238095</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44571.02217261904</v>
+        <v>44579.48720238095</v>
       </c>
     </row>
     <row r="52">
@@ -1784,10 +1784,10 @@
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>44586.59241071429</v>
+        <v>44586.16949404762</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44587.06254960317</v>
+        <v>44586.6396329365</v>
       </c>
     </row>
     <row r="53">
@@ -1810,10 +1810,10 @@
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>44583.72936507937</v>
+        <v>44580.07609126984</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44584.00992063492</v>
+        <v>44580.35664682539</v>
       </c>
     </row>
     <row r="54">
@@ -1836,10 +1836,10 @@
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>44584.825</v>
+        <v>44577.4552579365</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44585.10555555556</v>
+        <v>44577.73581349206</v>
       </c>
     </row>
     <row r="55">
@@ -1862,10 +1862,10 @@
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>44585.59861111111</v>
+        <v>44583.7875</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44585.88055555556</v>
+        <v>44584.06944444445</v>
       </c>
     </row>
     <row r="56">
@@ -1888,10 +1888,10 @@
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>44582.40793650793</v>
+        <v>44585.01041666666</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44582.68988095237</v>
+        <v>44585.29236111111</v>
       </c>
     </row>
     <row r="57">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>44585.83263888889</v>
+        <v>44585.40902777778</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44586.29652777778</v>
+        <v>44585.87291666667</v>
       </c>
     </row>
     <row r="58">
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>44587.12291666667</v>
+        <v>44586.79930555556</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44587.58680555555</v>
+        <v>44587.26319444444</v>
       </c>
     </row>
     <row r="59">
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>44584.44375</v>
+        <v>44583.91388888889</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44584.90763888889</v>
+        <v>44584.37777777778</v>
       </c>
     </row>
     <row r="60">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>44587.15208333333</v>
+        <v>44585.87430555555</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44587.4375</v>
+        <v>44586.15972222222</v>
       </c>
     </row>
     <row r="61">
@@ -2018,10 +2018,10 @@
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>44586.37361111111</v>
+        <v>44586.74166666667</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44586.65902777778</v>
+        <v>44587.02708333333</v>
       </c>
     </row>
     <row r="62">
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>44581.53913690476</v>
+        <v>44582.57782738095</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44581.85788690476</v>
+        <v>44582.89657738095</v>
       </c>
     </row>
     <row r="63">
@@ -2070,10 +2070,10 @@
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>44584.76736111111</v>
+        <v>44584.15972222222</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44585.32847222222</v>
+        <v>44584.72083333333</v>
       </c>
     </row>
     <row r="64">
@@ -2096,10 +2096,10 @@
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>44576.28819444445</v>
+        <v>44584.42083333333</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44576.59097222222</v>
+        <v>44584.72361111111</v>
       </c>
     </row>
     <row r="65">
@@ -2122,10 +2122,10 @@
         </is>
       </c>
       <c r="E65" s="2" t="n">
-        <v>44569.27495039682</v>
+        <v>44568.87078373015</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44569.55342261904</v>
+        <v>44569.14925595238</v>
       </c>
     </row>
     <row r="66">
@@ -2148,10 +2148,10 @@
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>44565.33606150793</v>
+        <v>44571.87683531745</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44565.61453373015</v>
+        <v>44572.15530753967</v>
       </c>
     </row>
     <row r="67">
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>44567.30550595238</v>
+        <v>44571.12063492063</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44567.5839781746</v>
+        <v>44571.39910714285</v>
       </c>
     </row>
     <row r="68">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>44585.44935515873</v>
+        <v>44584.88060515872</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44585.73963293651</v>
+        <v>44585.1708829365</v>
       </c>
     </row>
     <row r="69">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>44580.48635912698</v>
+        <v>44581.875</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44580.77663690476</v>
+        <v>44582.16527777778</v>
       </c>
     </row>
     <row r="70">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>44567.96587301587</v>
+        <v>44575.83164682539</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44568.24434523809</v>
+        <v>44576.11011904762</v>
       </c>
     </row>
     <row r="71">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>44578.96086309523</v>
+        <v>44569.62212301587</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44579.23933531746</v>
+        <v>44569.90059523809</v>
       </c>
     </row>
     <row r="72">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>44565.99642857142</v>
+        <v>44575.08516865079</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44566.27490079364</v>
+        <v>44575.36364087301</v>
       </c>
     </row>
     <row r="73">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>44582.26339285714</v>
+        <v>44572.62261904762</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44582.54186507937</v>
+        <v>44572.90109126984</v>
       </c>
     </row>
     <row r="74">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>44580.9419642857</v>
+        <v>44577.34404761904</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44581.22043650793</v>
+        <v>44577.62251984126</v>
       </c>
     </row>
     <row r="75">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>44580.28159722222</v>
+        <v>44576.584375</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44580.56006944444</v>
+        <v>44576.86284722222</v>
       </c>
     </row>
     <row r="76">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>44579.62123015873</v>
+        <v>44570.36721230159</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44579.89970238095</v>
+        <v>44570.64568452381</v>
       </c>
     </row>
     <row r="77">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>44583.89861111111</v>
+        <v>44583.32708333333</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44584.31180555555</v>
+        <v>44583.74027777778</v>
       </c>
     </row>
     <row r="78">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>44585.18888888889</v>
+        <v>44584.71736111111</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44585.60208333333</v>
+        <v>44585.13055555556</v>
       </c>
     </row>
     <row r="79">
@@ -2486,10 +2486,10 @@
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>44582.50972222222</v>
+        <v>44581.83194444444</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44582.92291666667</v>
+        <v>44582.24513888889</v>
       </c>
     </row>
     <row r="80">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>44584.24588293651</v>
+        <v>44584.26458333333</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44584.52504960317</v>
+        <v>44584.54375</v>
       </c>
     </row>
     <row r="81">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>44581.6023313492</v>
+        <v>44582.11111111111</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44581.88149801587</v>
+        <v>44582.39027777778</v>
       </c>
     </row>
     <row r="82">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>44582.92375992062</v>
+        <v>44583.19097222222</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44583.20292658729</v>
+        <v>44583.47013888889</v>
       </c>
     </row>
     <row r="83">
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>44584.90694444445</v>
+        <v>44581.36046626983</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44585.18611111111</v>
+        <v>44581.6396329365</v>
       </c>
     </row>
     <row r="84">
@@ -2616,10 +2616,10 @@
         </is>
       </c>
       <c r="E84" s="2" t="n">
-        <v>44583.58482142857</v>
+        <v>44580.60843253967</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44583.86398809523</v>
+        <v>44580.88759920634</v>
       </c>
     </row>
     <row r="85">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2642,10 +2642,10 @@
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>44565.3325892857</v>
+        <v>44581.08060515873</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44565.63189484126</v>
+        <v>44581.38129960317</v>
       </c>
     </row>
     <row r="86">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>44579.54682539681</v>
+        <v>44568.92217261904</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44579.84613095237</v>
+        <v>44569.22147817459</v>
       </c>
     </row>
     <row r="87">
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>44580.18705357143</v>
+        <v>44569.65059523809</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44580.48635912698</v>
+        <v>44569.94990079365</v>
       </c>
     </row>
     <row r="88">
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>44583.28541666667</v>
+        <v>44582.51805555556</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44583.80208333334</v>
+        <v>44583.03472222222</v>
       </c>
     </row>
     <row r="89">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>44567.90833333333</v>
+        <v>44567.34722222222</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44568.19861111111</v>
+        <v>44567.6375</v>
       </c>
     </row>
     <row r="90">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>44563.96944444445</v>
+        <v>44566.27777777778</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44564.25972222222</v>
+        <v>44566.56805555556</v>
       </c>
     </row>
     <row r="91">
@@ -2798,10 +2798,10 @@
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>44565.93888888889</v>
+        <v>44569.60749007936</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>44566.22916666666</v>
+        <v>44569.89776785714</v>
       </c>
     </row>
     <row r="92">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>44584.04523809523</v>
+        <v>44583.33273809523</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44584.34523809523</v>
+        <v>44583.63273809523</v>
       </c>
     </row>
     <row r="93">
@@ -2850,10 +2850,10 @@
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>44575.34930555556</v>
+        <v>44566.4625</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44575.64930555555</v>
+        <v>44566.7625</v>
       </c>
     </row>
     <row r="94">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>44562.98472222222</v>
+        <v>44574.32544642856</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>44563.275</v>
+        <v>44574.61572420634</v>
       </c>
     </row>
     <row r="95">
@@ -2902,10 +2902,10 @@
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>44566.92361111111</v>
+        <v>44562</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>44567.21388888889</v>
+        <v>44562.29027777778</v>
       </c>
     </row>
     <row r="96">
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>44562</v>
+        <v>44573.25600198412</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44562.29027777778</v>
+        <v>44573.5462797619</v>
       </c>
     </row>
     <row r="97">
@@ -2954,10 +2954,10 @@
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>44579.26403769841</v>
+        <v>44571.11711309523</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>44579.55431547618</v>
+        <v>44571.40739087301</v>
       </c>
     </row>
     <row r="98">
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>44568.89305555556</v>
+        <v>44572.18655753967</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44569.18333333333</v>
+        <v>44572.47683531745</v>
       </c>
     </row>
     <row r="99">
@@ -3006,10 +3006,10 @@
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>44577.26989087301</v>
+        <v>44565.20833333334</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>44577.56016865079</v>
+        <v>44565.49861111111</v>
       </c>
     </row>
     <row r="100">
@@ -3032,10 +3032,10 @@
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>44578.25461309523</v>
+        <v>44564.13888888889</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>44578.54489087301</v>
+        <v>44564.42916666667</v>
       </c>
     </row>
     <row r="101">
@@ -3058,10 +3058,10 @@
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>44582.34305555555</v>
+        <v>44581.625</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>44582.74583333333</v>
+        <v>44582.02777777778</v>
       </c>
     </row>
     <row r="102">
@@ -3084,10 +3084,10 @@
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>44581.69722222222</v>
+        <v>44583.01527777778</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>44582.1</v>
+        <v>44583.41805555556</v>
       </c>
     </row>
     <row r="103">
@@ -3110,10 +3110,10 @@
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>44580.95416666667</v>
+        <v>44580.12986111111</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>44581.35694444444</v>
+        <v>44580.53263888889</v>
       </c>
     </row>
     <row r="104">
@@ -3136,10 +3136,10 @@
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>44581.23348214284</v>
+        <v>44582.74032738095</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>44581.52375992062</v>
+        <v>44583.03060515872</v>
       </c>
     </row>
     <row r="105">
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>44564.95416666667</v>
+        <v>44580.60143849206</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>44565.24444444444</v>
+        <v>44580.89171626983</v>
       </c>
     </row>
     <row r="106">
@@ -3188,10 +3188,10 @@
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>44580.24875992062</v>
+        <v>44581.6708829365</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>44580.5390376984</v>
+        <v>44581.96116071428</v>
       </c>
     </row>
     <row r="107">
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="E107" s="2" t="n">
-        <v>44583.54032738095</v>
+        <v>44575.39489087301</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>44583.83060515873</v>
+        <v>44575.68516865079</v>
       </c>
     </row>
     <row r="108">
@@ -3240,10 +3240,10 @@
         </is>
       </c>
       <c r="E108" s="2" t="n">
-        <v>44582.21820436507</v>
+        <v>44563.06944444445</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>44582.50848214285</v>
+        <v>44563.35972222222</v>
       </c>
     </row>
     <row r="109">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="E109" s="2" t="n">
-        <v>44563.99444444444</v>
+        <v>44566.35555555556</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>44564.29722222222</v>
+        <v>44566.65833333333</v>
       </c>
     </row>
     <row r="110">
@@ -3292,10 +3292,10 @@
         </is>
       </c>
       <c r="E110" s="2" t="n">
-        <v>44565.98888888889</v>
+        <v>44567.44444444445</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>44566.29166666666</v>
+        <v>44567.74722222222</v>
       </c>
     </row>
     <row r="111">
@@ -3318,10 +3318,10 @@
         </is>
       </c>
       <c r="E111" s="2" t="n">
-        <v>44566.98611111111</v>
+        <v>44562</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>44567.28888888889</v>
+        <v>44562.30277777778</v>
       </c>
     </row>
     <row r="112">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="E112" s="2" t="n">
-        <v>44581.83402777778</v>
+        <v>44580.925</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>44582.32013888889</v>
+        <v>44581.41111111111</v>
       </c>
     </row>
     <row r="113">
@@ -3370,10 +3370,10 @@
         </is>
       </c>
       <c r="E113" s="2" t="n">
-        <v>44562</v>
+        <v>44564.17777777778</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>44562.30277777778</v>
+        <v>44564.48055555556</v>
       </c>
     </row>
     <row r="114">
@@ -3396,10 +3396,10 @@
         </is>
       </c>
       <c r="E114" s="2" t="n">
-        <v>44574.29375</v>
+        <v>44565.26666666667</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>44574.59652777778</v>
+        <v>44565.56944444445</v>
       </c>
     </row>
     <row r="115">
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="E115" s="2" t="n">
-        <v>44581.04305555556</v>
+        <v>44580.19652777778</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>44581.40555555555</v>
+        <v>44580.55902777778</v>
       </c>
     </row>
     <row r="116">
@@ -3448,10 +3448,10 @@
         </is>
       </c>
       <c r="E116" s="2" t="n">
-        <v>44581.10277777778</v>
+        <v>44572.28541666667</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>44581.40555555555</v>
+        <v>44572.58819444444</v>
       </c>
     </row>
     <row r="117">
@@ -3474,10 +3474,10 @@
         </is>
       </c>
       <c r="E117" s="2" t="n">
-        <v>44580.39722222222</v>
+        <v>44581.58680555555</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>44580.75972222222</v>
+        <v>44581.94930555556</v>
       </c>
     </row>
     <row r="118">
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="E118" s="2" t="n">
-        <v>44578.28263888889</v>
+        <v>44581.64722222222</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>44578.58541666667</v>
+        <v>44581.95</v>
       </c>
     </row>
     <row r="119">
@@ -3526,10 +3526,10 @@
         </is>
       </c>
       <c r="E119" s="2" t="n">
-        <v>44579.65416666667</v>
+        <v>44578.70138888889</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>44580.01666666667</v>
+        <v>44579.06388888889</v>
       </c>
     </row>
     <row r="120">
@@ -3552,10 +3552,10 @@
         </is>
       </c>
       <c r="E120" s="2" t="n">
-        <v>44567.98333333333</v>
+        <v>44575.55208333334</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>44568.28611111111</v>
+        <v>44575.85486111111</v>
       </c>
     </row>
     <row r="121">
@@ -3578,10 +3578,10 @@
         </is>
       </c>
       <c r="E121" s="2" t="n">
-        <v>44580.48541666667</v>
+        <v>44579.41736111111</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>44580.86875</v>
+        <v>44579.80069444444</v>
       </c>
     </row>
     <row r="122">
@@ -3604,10 +3604,10 @@
         </is>
       </c>
       <c r="E122" s="2" t="n">
-        <v>44577.95833333334</v>
+        <v>44568.02559523809</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>44578.36180555556</v>
+        <v>44568.42906746031</v>
       </c>
     </row>
     <row r="123">
@@ -3630,10 +3630,10 @@
         </is>
       </c>
       <c r="E123" s="2" t="n">
-        <v>44578.59375</v>
+        <v>44562</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>44578.91111111111</v>
+        <v>44562.31736111111</v>
       </c>
     </row>
     <row r="124">
@@ -3656,10 +3656,10 @@
         </is>
       </c>
       <c r="E124" s="2" t="n">
-        <v>44577.04811507936</v>
+        <v>44577.48055555556</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>44577.36547619048</v>
+        <v>44577.79791666667</v>
       </c>
     </row>
     <row r="125">
@@ -3682,10 +3682,10 @@
         </is>
       </c>
       <c r="E125" s="2" t="n">
-        <v>44579.89652777778</v>
+        <v>44569.29980158729</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>44580.3</v>
+        <v>44569.70327380951</v>
       </c>
     </row>
     <row r="126">
@@ -3708,10 +3708,10 @@
         </is>
       </c>
       <c r="E126" s="2" t="n">
-        <v>44577.82093253967</v>
+        <v>44575.7613095238</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>44578.13829365079</v>
+        <v>44576.07867063492</v>
       </c>
     </row>
     <row r="127">
@@ -3734,10 +3734,10 @@
         </is>
       </c>
       <c r="E127" s="2" t="n">
-        <v>44569.50267857142</v>
+        <v>44578.89027777778</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>44569.90615079365</v>
+        <v>44579.29375</v>
       </c>
     </row>
     <row r="128">
@@ -3760,10 +3760,10 @@
         </is>
       </c>
       <c r="E128" s="2" t="n">
-        <v>44562</v>
+        <v>44576.62023809523</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>44562.31736111111</v>
+        <v>44576.93759920634</v>
       </c>
     </row>
     <row r="129">
@@ -3786,10 +3786,10 @@
         </is>
       </c>
       <c r="E129" s="2" t="n">
-        <v>44570.68313492063</v>
+        <v>44577.39513888889</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>44571.08660714285</v>
+        <v>44577.79861111111</v>
       </c>
     </row>
     <row r="130">
@@ -3812,10 +3812,10 @@
         </is>
       </c>
       <c r="E130" s="2" t="n">
-        <v>44570.05198412698</v>
+        <v>44576.74861111111</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>44570.4554563492</v>
+        <v>44577.15208333333</v>
       </c>
     </row>
     <row r="131">
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="E131" s="2" t="n">
-        <v>44578.50763888889</v>
+        <v>44569.94632936507</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>44578.91111111111</v>
+        <v>44570.34980158729</v>
       </c>
     </row>
     <row r="132">
@@ -3864,10 +3864,10 @@
         </is>
       </c>
       <c r="E132" s="2" t="n">
-        <v>44579.19930555556</v>
+        <v>44577.99375</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>44579.58263888889</v>
+        <v>44578.37708333333</v>
       </c>
     </row>
     <row r="133">
@@ -3890,10 +3890,10 @@
         </is>
       </c>
       <c r="E133" s="2" t="n">
-        <v>44579.27986111111</v>
+        <v>44573.37430555555</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>44579.58263888889</v>
+        <v>44573.67708333334</v>
       </c>
     </row>
     <row r="134">
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="E134" s="2" t="n">
-        <v>44576.67152777778</v>
+        <v>44566.59087301587</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>44577.11805555555</v>
+        <v>44567.03740079365</v>
       </c>
     </row>
     <row r="135">
@@ -3942,10 +3942,10 @@
         </is>
       </c>
       <c r="E135" s="2" t="n">
-        <v>44569.39632936507</v>
+        <v>44567.86507936507</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>44569.84285714284</v>
+        <v>44568.31160714284</v>
       </c>
     </row>
     <row r="136">
@@ -3968,10 +3968,10 @@
         </is>
       </c>
       <c r="E136" s="2" t="n">
-        <v>44568.21587301587</v>
+        <v>44575.31388888889</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>44568.66240079365</v>
+        <v>44575.76041666666</v>
       </c>
     </row>
     <row r="137">
@@ -3994,10 +3994,10 @@
         </is>
       </c>
       <c r="E137" s="2" t="n">
-        <v>44577.90138888889</v>
+        <v>44576.56458333333</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>44578.29652777778</v>
+        <v>44576.95972222222</v>
       </c>
     </row>
     <row r="138">
@@ -4020,10 +4020,10 @@
         </is>
       </c>
       <c r="E138" s="2" t="n">
-        <v>44577.28541666667</v>
+        <v>44576.64097222222</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>44577.58819444444</v>
+        <v>44576.94375</v>
       </c>
     </row>
     <row r="139">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4046,10 +4046,10 @@
         </is>
       </c>
       <c r="E139" s="2" t="n">
-        <v>44564.46944444445</v>
+        <v>44564.69791666666</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>44564.79305555556</v>
+        <v>44565.02708333333</v>
       </c>
     </row>
     <row r="140">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4072,10 +4072,10 @@
         </is>
       </c>
       <c r="E140" s="2" t="n">
-        <v>44566.46388888889</v>
+        <v>44573.42162698412</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>44566.7875</v>
+        <v>44573.75009920634</v>
       </c>
     </row>
     <row r="141">
@@ -4098,10 +4098,10 @@
         </is>
       </c>
       <c r="E141" s="2" t="n">
-        <v>44575.29097222222</v>
+        <v>44574.46319444444</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>44575.59375</v>
+        <v>44574.76597222222</v>
       </c>
     </row>
     <row r="142">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="E142" s="2" t="n">
-        <v>44562.99722222222</v>
+        <v>44563.08888888889</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>44563.3</v>
+        <v>44563.39166666667</v>
       </c>
     </row>
     <row r="143">
@@ -4150,10 +4150,10 @@
         </is>
       </c>
       <c r="E143" s="2" t="n">
-        <v>44564.99166666667</v>
+        <v>44571.19652777778</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>44565.29444444444</v>
+        <v>44571.49930555555</v>
       </c>
     </row>
   </sheetData>
